--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H2">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N2">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q2">
-        <v>5.71560142535</v>
+        <v>5.312719016843332</v>
       </c>
       <c r="R2">
-        <v>51.44041282815</v>
+        <v>47.81447115159</v>
       </c>
       <c r="S2">
-        <v>0.00398379946653886</v>
+        <v>0.006338913007474765</v>
       </c>
       <c r="T2">
-        <v>0.003983799466538859</v>
+        <v>0.006338913007474767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H3">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P3">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q3">
-        <v>14.677189118105</v>
+        <v>14.960044635085</v>
       </c>
       <c r="R3">
-        <v>132.094702062945</v>
+        <v>134.640401715765</v>
       </c>
       <c r="S3">
-        <v>0.01023006571446086</v>
+        <v>0.01784969640387436</v>
       </c>
       <c r="T3">
-        <v>0.01023006571446086</v>
+        <v>0.01784969640387437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H4">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N4">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q4">
-        <v>69.95714495626834</v>
+        <v>43.39411228049332</v>
       </c>
       <c r="R4">
-        <v>629.6143046064151</v>
+        <v>390.54701052444</v>
       </c>
       <c r="S4">
-        <v>0.04876043936886263</v>
+        <v>0.05177603067479358</v>
       </c>
       <c r="T4">
-        <v>0.04876043936886262</v>
+        <v>0.0517760306747936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H5">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N5">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q5">
-        <v>13.557518836525</v>
+        <v>14.55439602417167</v>
       </c>
       <c r="R5">
-        <v>122.017669528725</v>
+        <v>130.989564217545</v>
       </c>
       <c r="S5">
-        <v>0.00944965057727612</v>
+        <v>0.01736569353302229</v>
       </c>
       <c r="T5">
-        <v>0.00944965057727612</v>
+        <v>0.01736569353302229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H6">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N6">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O6">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P6">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q6">
-        <v>68.33777079707335</v>
+        <v>47.24313591447999</v>
       </c>
       <c r="R6">
-        <v>615.0399371736601</v>
+        <v>425.18822323032</v>
       </c>
       <c r="S6">
-        <v>0.04763172841940505</v>
+        <v>0.05636852387878254</v>
       </c>
       <c r="T6">
-        <v>0.04763172841940505</v>
+        <v>0.05636852387878255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N7">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q7">
-        <v>9.358574156040001</v>
+        <v>8.534431525672002</v>
       </c>
       <c r="R7">
-        <v>84.22716740436002</v>
+        <v>76.809883731048</v>
       </c>
       <c r="S7">
-        <v>0.006522967568214131</v>
+        <v>0.01018292494633549</v>
       </c>
       <c r="T7">
-        <v>0.00652296756821413</v>
+        <v>0.0101829249463355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.554173</v>
       </c>
       <c r="O8">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P8">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q8">
-        <v>24.03204012001201</v>
+        <v>24.032040120012</v>
       </c>
       <c r="R8">
         <v>216.288361080108</v>
       </c>
       <c r="S8">
-        <v>0.01675043822778136</v>
+        <v>0.02867402006956013</v>
       </c>
       <c r="T8">
-        <v>0.01675043822778136</v>
+        <v>0.02867402006956014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N9">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q9">
-        <v>114.545973397364</v>
+        <v>69.70895292995201</v>
       </c>
       <c r="R9">
-        <v>1030.913760576276</v>
+        <v>627.380576369568</v>
       </c>
       <c r="S9">
-        <v>0.07983904995381121</v>
+        <v>0.08317379237716038</v>
       </c>
       <c r="T9">
-        <v>0.07983904995381119</v>
+        <v>0.08317379237716038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N10">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q10">
-        <v>22.19872170246001</v>
+        <v>23.380400106236</v>
       </c>
       <c r="R10">
-        <v>199.78849532214</v>
+        <v>210.423600956124</v>
       </c>
       <c r="S10">
-        <v>0.01547260718423685</v>
+        <v>0.02789651059721276</v>
       </c>
       <c r="T10">
-        <v>0.01547260718423684</v>
+        <v>0.02789651059721276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N11">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O11">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P11">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q11">
-        <v>111.894453106256</v>
+        <v>75.89208223545602</v>
       </c>
       <c r="R11">
-        <v>1007.050077956304</v>
+        <v>683.0287401191041</v>
       </c>
       <c r="S11">
-        <v>0.07799092858649836</v>
+        <v>0.09055124235283138</v>
       </c>
       <c r="T11">
-        <v>0.07799092858649836</v>
+        <v>0.09055124235283139</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H12">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N12">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O12">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P12">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q12">
-        <v>15.82638857601667</v>
+        <v>10.03148588765844</v>
       </c>
       <c r="R12">
-        <v>142.43749718415</v>
+        <v>90.283372988926</v>
       </c>
       <c r="S12">
-        <v>0.01103106281811997</v>
+        <v>0.01196914728145368</v>
       </c>
       <c r="T12">
-        <v>0.01103106281811997</v>
+        <v>0.01196914728145368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H13">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.554173</v>
       </c>
       <c r="O13">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P13">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q13">
-        <v>40.64084964997167</v>
+        <v>28.24758398850233</v>
       </c>
       <c r="R13">
-        <v>365.767646849745</v>
+        <v>254.228255896521</v>
       </c>
       <c r="S13">
-        <v>0.02832685191048442</v>
+        <v>0.0337038298104546</v>
       </c>
       <c r="T13">
-        <v>0.02832685191048442</v>
+        <v>0.0337038298104546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H14">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N14">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O14">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P14">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q14">
-        <v>193.7099663451128</v>
+        <v>81.93684318126844</v>
       </c>
       <c r="R14">
-        <v>1743.389697106015</v>
+        <v>737.4315886314159</v>
       </c>
       <c r="S14">
-        <v>0.1350167030832919</v>
+        <v>0.09776359701811781</v>
       </c>
       <c r="T14">
-        <v>0.1350167030832919</v>
+        <v>0.09776359701811781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H15">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N15">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O15">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P15">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q15">
-        <v>37.54050453585833</v>
+        <v>27.48163753004589</v>
       </c>
       <c r="R15">
-        <v>337.864540822725</v>
+        <v>247.334737770413</v>
       </c>
       <c r="S15">
-        <v>0.02616589765693712</v>
+        <v>0.03278993469325647</v>
       </c>
       <c r="T15">
-        <v>0.02616589765693712</v>
+        <v>0.03278993469325647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H16">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N16">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O16">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P16">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q16">
-        <v>189.2259509657844</v>
+        <v>89.20457673600534</v>
       </c>
       <c r="R16">
-        <v>1703.03355869206</v>
+        <v>802.841190624048</v>
       </c>
       <c r="S16">
-        <v>0.1318913245366192</v>
+        <v>0.1064351511919645</v>
       </c>
       <c r="T16">
-        <v>0.1318913245366193</v>
+        <v>0.1064351511919645</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H17">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N17">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O17">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P17">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q17">
-        <v>2.718904520396667</v>
+        <v>2.72388756705</v>
       </c>
       <c r="R17">
-        <v>24.47014068357</v>
+        <v>24.51498810345</v>
       </c>
       <c r="S17">
-        <v>0.001895088473084537</v>
+        <v>0.00325002814470909</v>
       </c>
       <c r="T17">
-        <v>0.001895088473084537</v>
+        <v>0.00325002814470909</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H18">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.554173</v>
       </c>
       <c r="O18">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P18">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q18">
-        <v>6.981920688685667</v>
+        <v>7.670174058674999</v>
       </c>
       <c r="R18">
-        <v>62.83728619817101</v>
+        <v>69.03156652807499</v>
       </c>
       <c r="S18">
-        <v>0.00486642959245524</v>
+        <v>0.009151729266310688</v>
       </c>
       <c r="T18">
-        <v>0.00486642959245524</v>
+        <v>0.00915172926631069</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H19">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N19">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O19">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P19">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q19">
-        <v>33.27852722760412</v>
+        <v>22.2486230778</v>
       </c>
       <c r="R19">
-        <v>299.506745048437</v>
+        <v>200.2376077002</v>
       </c>
       <c r="S19">
-        <v>0.02319528062760427</v>
+        <v>0.02654612182182881</v>
       </c>
       <c r="T19">
-        <v>0.02319528062760426</v>
+        <v>0.02654612182182881</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H20">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N20">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O20">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P20">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q20">
-        <v>6.449294922228334</v>
+        <v>7.462193699775</v>
       </c>
       <c r="R20">
-        <v>58.043654300055</v>
+        <v>67.159743297975</v>
       </c>
       <c r="S20">
-        <v>0.004495187078086309</v>
+        <v>0.008903575844653953</v>
       </c>
       <c r="T20">
-        <v>0.004495187078086309</v>
+        <v>0.008903575844653955</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H21">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N21">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O21">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P21">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q21">
-        <v>32.50819294534978</v>
+        <v>24.2220584484</v>
       </c>
       <c r="R21">
-        <v>292.573736508148</v>
+        <v>217.9985260356</v>
       </c>
       <c r="S21">
-        <v>0.02265835422663265</v>
+        <v>0.02890074195145498</v>
       </c>
       <c r="T21">
-        <v>0.02265835422663265</v>
+        <v>0.02890074195145499</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H22">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N22">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O22">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P22">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q22">
-        <v>13.98845171802</v>
+        <v>8.886851844647111</v>
       </c>
       <c r="R22">
-        <v>125.89606546218</v>
+        <v>79.981666601824</v>
       </c>
       <c r="S22">
-        <v>0.009750012701163845</v>
+        <v>0.01060341805673099</v>
       </c>
       <c r="T22">
-        <v>0.009750012701163845</v>
+        <v>0.01060341805673099</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H23">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.554173</v>
       </c>
       <c r="O23">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P23">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q23">
-        <v>35.92118065200601</v>
+        <v>25.02441778678934</v>
       </c>
       <c r="R23">
-        <v>323.2906258680541</v>
+        <v>225.219760081104</v>
       </c>
       <c r="S23">
-        <v>0.0250372217496157</v>
+        <v>0.02985808338635116</v>
       </c>
       <c r="T23">
-        <v>0.0250372217496157</v>
+        <v>0.02985808338635116</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H24">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N24">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O24">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P24">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q24">
-        <v>171.214203322682</v>
+        <v>72.58751037728712</v>
       </c>
       <c r="R24">
-        <v>1540.927829904138</v>
+        <v>653.2875933955841</v>
       </c>
       <c r="S24">
-        <v>0.1193370567855873</v>
+        <v>0.08660836612138179</v>
       </c>
       <c r="T24">
-        <v>0.1193370567855873</v>
+        <v>0.08660836612138179</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H25">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N25">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O25">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P25">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q25">
-        <v>33.18088221123001</v>
+        <v>24.34586898819023</v>
       </c>
       <c r="R25">
-        <v>298.62793990107</v>
+        <v>219.112820893712</v>
       </c>
       <c r="S25">
-        <v>0.02312722161942779</v>
+        <v>0.02904846748308023</v>
       </c>
       <c r="T25">
-        <v>0.02312722161942779</v>
+        <v>0.02904846748308023</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H26">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N26">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O26">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P26">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q26">
-        <v>167.250921849128</v>
+        <v>79.02596546466134</v>
       </c>
       <c r="R26">
-        <v>1505.258296642152</v>
+        <v>711.2336891819521</v>
       </c>
       <c r="S26">
-        <v>0.1165746320738045</v>
+        <v>0.09429046008720351</v>
       </c>
       <c r="T26">
-        <v>0.1165746320738045</v>
+        <v>0.09429046008720353</v>
       </c>
     </row>
   </sheetData>
